--- a/generated_docs/WR_89912899_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89912899_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4862.8</v>
+        <v>20593.55</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/29/2025 to 08/03/25</t>
+          <t>07/28/2025 to 08/03/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -1211,22 +1211,1565 @@
         <v>3385.190000000001</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/30/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H54" s="16" t="n">
+        <v>6601.78</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D58" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F58" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H58" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="inlineStr"/>
+      <c r="H59" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B60" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C60" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E60" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F60" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13" t="inlineStr"/>
+      <c r="H60" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E61" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G61" s="10" t="inlineStr"/>
+      <c r="H61" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B62" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C62" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E62" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="13" t="inlineStr"/>
+      <c r="H62" s="14" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-1</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E63" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10" t="inlineStr"/>
+      <c r="H63" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B64" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C64" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E64" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13" t="inlineStr"/>
+      <c r="H64" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E65" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" s="10" t="inlineStr"/>
+      <c r="H65" s="11" t="n">
+        <v>282.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B66" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C66" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E66" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="inlineStr"/>
+      <c r="H66" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E67" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="10" t="inlineStr"/>
+      <c r="H67" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B68" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E68" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="inlineStr"/>
+      <c r="H68" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H69" s="16" t="n">
+        <v>3991.09</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/01/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D73" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G73" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H73" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B75" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C75" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>107.92</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>107.92</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B79" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C79" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E79" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="inlineStr"/>
+      <c r="H79" s="14" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="11" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B81" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C81" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E81" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" s="13" t="inlineStr"/>
+      <c r="H81" s="14" t="n">
+        <v>376.68</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E82" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="inlineStr"/>
+      <c r="H82" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B83" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C83" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E83" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" s="13" t="inlineStr"/>
+      <c r="H83" s="14" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D84" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E84" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="inlineStr"/>
+      <c r="H84" s="11" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C85" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D85" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E85" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="13" t="inlineStr"/>
+      <c r="H85" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B86" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D86" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E86" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="10" t="inlineStr"/>
+      <c r="H86" s="11" t="n">
+        <v>94.17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C87" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D87" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E87" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="13" t="inlineStr"/>
+      <c r="H87" s="14" t="n">
+        <v>478.55</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H88" s="16" t="n">
+        <v>5137.88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A33:G33"/>
+  <mergeCells count="20">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D2:I4"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A88:G88"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="D2:I4"/>
+    <mergeCell ref="A57:H57"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A69:G69"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>

--- a/generated_docs/WR_89912899_WeekEnding_080325.xlsx
+++ b/generated_docs/WR_89912899_WeekEnding_080325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I88"/>
+  <dimension ref="A2:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>20593.55</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H19" s="16" t="n">
-        <v>1477.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +926,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -937,7 +937,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1024,11 +1024,11 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>470.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1058,22 +1058,22 @@
         </is>
       </c>
       <c r="F28" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1130,18 +1130,18 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1198,680 +1198,791 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="inlineStr">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H33" s="16" t="n">
-        <v>3385.190000000001</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="H36" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/30/2025)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr">
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G37" s="8" t="inlineStr">
+      <c r="G40" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H37" s="8" t="inlineStr">
+      <c r="H40" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="9" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B38" s="9" t="inlineStr">
+      <c r="B41" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C38" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="inlineStr">
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E38" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="inlineStr"/>
-      <c r="H38" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="inlineStr">
+      <c r="E41" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="inlineStr"/>
+      <c r="H41" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B39" s="12" t="inlineStr">
+      <c r="B42" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
+      <c r="E42" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13" t="inlineStr"/>
+      <c r="H42" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B40" s="9" t="inlineStr">
+      <c r="B43" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="inlineStr"/>
+      <c r="H43" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B41" s="12" t="inlineStr">
+      <c r="B44" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
+      <c r="C44" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
+      <c r="E44" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13" t="inlineStr"/>
+      <c r="H44" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B42" s="9" t="inlineStr">
+      <c r="B45" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
+      <c r="C45" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
+      <c r="E45" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10" t="inlineStr"/>
+      <c r="H45" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B43" s="12" t="inlineStr">
+      <c r="B46" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
+      <c r="C46" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="inlineStr">
+      <c r="E46" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13" t="inlineStr"/>
+      <c r="H46" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B47" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="inlineStr">
+      <c r="C47" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="n">
+      <c r="E47" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="10" t="inlineStr"/>
-      <c r="H44" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
+      <c r="G47" s="10" t="inlineStr"/>
+      <c r="H47" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B45" s="12" t="inlineStr">
+      <c r="B48" s="12" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
-      <c r="C45" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="12" t="inlineStr">
+      <c r="C48" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="12" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
-      <c r="E45" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13" t="inlineStr"/>
-      <c r="H45" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
+      <c r="E48" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13" t="inlineStr"/>
+      <c r="H48" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
+      <c r="E51" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
+      <c r="G51" s="10" t="inlineStr"/>
+      <c r="H51" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B52" s="12" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
+      <c r="C52" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="12" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
+      <c r="E52" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
+      <c r="G52" s="13" t="inlineStr"/>
+      <c r="H52" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
         <is>
           <t>Point 17</t>
         </is>
       </c>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="B53" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr"/>
+      <c r="H54" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B55" s="9" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B51" s="12" t="inlineStr">
+      <c r="B56" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="12" t="inlineStr">
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E51" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="n">
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="13" t="inlineStr"/>
-      <c r="H51" s="14" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="inlineStr">
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B57" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="9" t="inlineStr">
+      <c r="C57" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E52" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="10" t="n">
+      <c r="E57" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G52" s="10" t="inlineStr"/>
-      <c r="H52" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr"/>
+      <c r="H57" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B53" s="12" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C53" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="12" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E53" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F53" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="13" t="inlineStr"/>
-      <c r="H53" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H54" s="16" t="n">
-        <v>6601.78</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/31/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D58" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E58" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F58" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G58" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H58" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="E58" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13" t="inlineStr"/>
+      <c r="H58" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B59" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C59" s="9" t="inlineStr">
@@ -1881,7 +1992,7 @@
       </c>
       <c r="D59" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E59" s="9" t="inlineStr">
@@ -1890,181 +2001,70 @@
         </is>
       </c>
       <c r="F59" s="10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G59" s="10" t="inlineStr"/>
       <c r="H59" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t>Point 23</t>
-        </is>
-      </c>
-      <c r="B60" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E60" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>282.51</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B62" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>282.51</v>
+      <c r="A60" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H60" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="inlineStr">
-        <is>
-          <t>Point 07</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="inlineStr">
-        <is>
-          <t>POL-45-1</t>
-        </is>
-      </c>
-      <c r="C63" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D63" s="9" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>478.55</v>
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/31/2025)</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B64" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL-C</t>
-        </is>
-      </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D64" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
-        </is>
-      </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>350.53</v>
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H64" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B65" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C65" s="9" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D65" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E65" s="9" t="inlineStr">
@@ -2094,11 +2094,11 @@
         </is>
       </c>
       <c r="F65" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" s="10" t="inlineStr"/>
       <c r="H65" s="11" t="n">
-        <v>282.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B66" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C66" s="12" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="D66" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E66" s="12" t="inlineStr">
@@ -2132,13 +2132,13 @@
       </c>
       <c r="G66" s="13" t="inlineStr"/>
       <c r="H66" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B67" s="9" t="inlineStr">
@@ -2162,22 +2162,22 @@
         </is>
       </c>
       <c r="F67" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="10" t="inlineStr"/>
       <c r="H67" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B68" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C68" s="12" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="D68" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E68" s="12" t="inlineStr">
@@ -2196,489 +2196,489 @@
         </is>
       </c>
       <c r="F68" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" s="13" t="inlineStr"/>
       <c r="H68" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="inlineStr">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-1</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E69" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="10" t="inlineStr"/>
+      <c r="H69" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B70" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C70" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E70" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13" t="inlineStr"/>
+      <c r="H70" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="10" t="inlineStr"/>
+      <c r="H71" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B72" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E72" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13" t="inlineStr"/>
+      <c r="H72" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" s="10" t="inlineStr"/>
+      <c r="H73" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B74" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C74" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D74" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E74" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13" t="inlineStr"/>
+      <c r="H74" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H69" s="16" t="n">
-        <v>3991.09</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7" t="inlineStr">
+      <c r="H81" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="inlineStr">
         <is>
           <t>Friday (08/01/2025)</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="8" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B73" s="8" t="inlineStr">
+      <c r="B85" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C73" s="8" t="inlineStr">
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D73" s="8" t="inlineStr">
+      <c r="D85" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E73" s="8" t="inlineStr">
+      <c r="E85" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="F85" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G73" s="8" t="inlineStr">
+      <c r="G85" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H73" s="8" t="inlineStr">
+      <c r="H85" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E74" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="10" t="inlineStr"/>
-      <c r="H74" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B75" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-TL-C</t>
-        </is>
-      </c>
-      <c r="C75" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D75" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
-        </is>
-      </c>
-      <c r="E75" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="13" t="inlineStr"/>
-      <c r="H75" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C76" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="10" t="inlineStr"/>
-      <c r="H76" s="11" t="n">
-        <v>107.92</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B77" s="12" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>107.92</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C78" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E78" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="10" t="inlineStr"/>
-      <c r="H78" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B79" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C79" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E79" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="13" t="inlineStr"/>
-      <c r="H79" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL-C</t>
-        </is>
-      </c>
-      <c r="C80" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
-        </is>
-      </c>
-      <c r="E80" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="10" t="inlineStr"/>
-      <c r="H80" s="11" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B81" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C81" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E81" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G81" s="13" t="inlineStr"/>
-      <c r="H81" s="14" t="n">
-        <v>376.68</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B82" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C82" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D82" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E82" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="10" t="inlineStr"/>
-      <c r="H82" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B83" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C83" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D83" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E83" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" s="13" t="inlineStr"/>
-      <c r="H83" s="14" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-1</t>
-        </is>
-      </c>
-      <c r="C84" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D84" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 1</t>
-        </is>
-      </c>
-      <c r="E84" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="10" t="inlineStr"/>
-      <c r="H84" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="12" t="inlineStr">
-        <is>
-          <t>Point 11</t>
-        </is>
-      </c>
-      <c r="B85" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL-C</t>
-        </is>
-      </c>
-      <c r="C85" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D85" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
-        </is>
-      </c>
-      <c r="E85" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F85" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="13" t="inlineStr"/>
-      <c r="H85" s="14" t="n">
-        <v>350.53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -2701,18 +2701,18 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2735,41 +2735,619 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="15" t="inlineStr">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="inlineStr"/>
+      <c r="H89" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B91" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="inlineStr"/>
+      <c r="H91" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B95" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B99" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-1</t>
+        </is>
+      </c>
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 1</t>
+        </is>
+      </c>
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B101" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B103" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H88" s="16" t="n">
-        <v>5137.88</v>
+      <c r="H105" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="D2:I4"/>
-    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A81:G81"/>
     <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A57:H57"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="A69:G69"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A63:H63"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
